--- a/public/Excel/12iqbalroni.xlsx
+++ b/public/Excel/12iqbalroni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49d21441bb58c6be/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{239DC536-1147-4D08-A34D-591E0BFBA720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EB6EAA-7627-49A3-A0B9-27FC20EDBBC0}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{239DC536-1147-4D08-A34D-591E0BFBA720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7221DB-ECA1-4633-AB62-1D99BCED5895}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C5CC55A-B3A4-4EAA-8FD8-1CC788D00030}"/>
   </bookViews>
@@ -6993,11 +6993,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412621CA-E13C-4ADA-BE46-7D81CE440D55}">
   <dimension ref="A1:H1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1061" workbookViewId="0">
-      <selection activeCell="M1075" sqref="M1075"/>
+    <sheetView tabSelected="1" topLeftCell="A1053" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1060" sqref="D1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="44.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
